--- a/data.xlsx
+++ b/data.xlsx
@@ -34,7 +34,7 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>RS Medika Putra</t>
+    <t>RS Medika</t>
   </si>
   <si>
     <t>Baju</t>
@@ -43,7 +43,7 @@
     <t>kurang bagus</t>
   </si>
   <si>
-    <t>success</t>
+    <t>checking</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Customer</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Quality</t>
   </si>
   <si>
+    <t>Service</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -34,16 +37,25 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>RS Medika</t>
   </si>
   <si>
     <t>Baju</t>
   </si>
   <si>
-    <t>kurang bagus</t>
+    <t>bagus</t>
+  </si>
+  <si>
+    <t>cuci</t>
   </si>
   <si>
     <t>checking</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -427,16 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="2" max="5" width="20" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,28 +470,40 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44748.052939814814</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="2">
         <v>44748.052939814814</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
+        <v>44748.052939814814</v>
+      </c>
+      <c r="H2">
         <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Customer</t>
   </si>
@@ -46,16 +46,22 @@
     <t>Baju</t>
   </si>
   <si>
-    <t>bagus</t>
-  </si>
-  <si>
-    <t>cuci</t>
+    <t>kurang bagus</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
   <si>
     <t>checking</t>
   </si>
   <si>
-    <t>22</t>
+    <t>35 KG</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -506,6 +512,64 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44748.70833333333</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44748.70833333333</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44748.70833333333</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44748.70833333333</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>Customer</t>
   </si>
@@ -52,16 +52,16 @@
     <t>weight</t>
   </si>
   <si>
-    <t>checking</t>
+    <t>processing</t>
   </si>
   <si>
     <t>35 KG</t>
   </si>
   <si>
-    <t>transit</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -500,13 +500,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="2">
-        <v>44748.052939814814</v>
+        <v>44748.70833333333</v>
       </c>
       <c r="G2" s="2">
-        <v>44748.052939814814</v>
+        <v>44779.70833333333</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -529,10 +529,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>44748.70833333333</v>
+        <v>44763.70833333333</v>
       </c>
       <c r="G3" s="2">
-        <v>44748.70833333333</v>
+        <v>44763.70833333333</v>
       </c>
       <c r="H3">
         <v>29</v>
@@ -555,18 +555,105 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
-        <v>44748.70833333333</v>
+        <v>44763.70833333333</v>
       </c>
       <c r="G4" s="2">
-        <v>44748.70833333333</v>
+        <v>44763.70833333333</v>
       </c>
       <c r="H4">
         <v>29</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44763.70833333333</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44763.70833333333</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H6">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H7">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Customer</t>
   </si>
@@ -40,10 +40,22 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>RS Medika</t>
-  </si>
-  <si>
-    <t>Baju</t>
+    <t>RS Medika Putrassada</t>
+  </si>
+  <si>
+    <t>celanaas</t>
+  </si>
+  <si>
+    <t>bagus</t>
+  </si>
+  <si>
+    <t>cuci</t>
+  </si>
+  <si>
+    <t>checking</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>kurang bagus</t>
@@ -52,16 +64,13 @@
     <t>weight</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>35 KG</t>
+  </si>
+  <si>
     <t>processing</t>
-  </si>
-  <si>
-    <t>35 KG</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -500,13 +509,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="2">
-        <v>44748.70833333333</v>
+        <v>44748.052939814814</v>
       </c>
       <c r="G2" s="2">
-        <v>44779.70833333333</v>
+        <v>44748.052939814814</v>
       </c>
       <c r="H2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -520,13 +529,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>44763.70833333333</v>
@@ -538,7 +547,7 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -549,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>44763.70833333333</v>
@@ -567,94 +576,7 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44763.70833333333</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45128.70833333333</v>
-      </c>
-      <c r="H5">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44763.70833333333</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45128.70833333333</v>
-      </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45128.70833333333</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45128.70833333333</v>
-      </c>
-      <c r="H7">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,54 +11,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone_Number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Linen</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date In</t>
+  </si>
+  <si>
+    <t>Date Out</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Heavy</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>EPC</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>fajar</t>
-  </si>
-  <si>
-    <t>fajar@gmail.com</t>
-  </si>
-  <si>
-    <t>08971881712</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>35 kg</t>
-  </si>
-  <si>
-    <t>astagfirullah</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF23D52F</t>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>RS Medika Putrassada</t>
   </si>
   <si>
     <t>celanaas</t>
@@ -67,28 +52,31 @@
     <t>E28068910000500DAF232931</t>
   </si>
   <si>
-    <t>E28068910000500DAF231529</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF25912A</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF23A931</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF235D31</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF23512F</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF250516</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF24A116</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF22792C</t>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>35 KG</t>
+  </si>
+  <si>
+    <t>RS Medika3</t>
+  </si>
+  <si>
+    <t>setrika</t>
+  </si>
+  <si>
+    <t>baik</t>
+  </si>
+  <si>
+    <t>checking</t>
+  </si>
+  <si>
+    <t>2222</t>
   </si>
 </sst>
 </file>
@@ -104,12 +92,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -466,332 +460,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="6" width="20" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="9" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I2">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G3" s="2">
+        <v>117662</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-612823</v>
+      </c>
+      <c r="I3">
+        <v>22222</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1">
-        <v>45083.15320503472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1">
-        <v>45083.15320503472</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Customer</t>
   </si>
@@ -41,42 +41,6 @@
   </si>
   <si>
     <t>Weight</t>
-  </si>
-  <si>
-    <t>RS Medika Putrassada</t>
-  </si>
-  <si>
-    <t>celanaas</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF232931</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>35 KG</t>
-  </si>
-  <si>
-    <t>RS Medika3</t>
-  </si>
-  <si>
-    <t>setrika</t>
-  </si>
-  <si>
-    <t>baik</t>
-  </si>
-  <si>
-    <t>checking</t>
-  </si>
-  <si>
-    <t>2222</t>
   </si>
 </sst>
 </file>
@@ -117,10 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -501,70 +464,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45128.70833333333</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45128.70833333333</v>
-      </c>
-      <c r="I2">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>117662</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-612823</v>
-      </c>
-      <c r="I3">
-        <v>22222</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>Customer</t>
   </si>
@@ -41,6 +41,54 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>RS Medika Putrassada</t>
+  </si>
+  <si>
+    <t>celanaas</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF23D52F</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>35 KG</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF232931</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF231529</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF25912A</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF23A931</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF235D31</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF23512F</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF250516</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF24A116</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF22792C</t>
   </si>
 </sst>
 </file>
@@ -81,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,11 +472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="6" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="6" width="20" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="10" width="10" customWidth="1"/>
   </cols>
@@ -464,6 +515,326 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45128.70833333333</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="36">
   <si>
     <t>Customer</t>
   </si>
@@ -89,6 +89,36 @@
   </si>
   <si>
     <t>E28068910000400DAF22792C</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF23D52Fsh</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF232931sg</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF231529sh</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF25912Ajg</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF23A931sf</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF235D31sf</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF23512Ffsf</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF24A116sfd</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF22792Csf</t>
   </si>
 </sst>
 </file>
@@ -472,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J311"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -835,6 +865,8706 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45099.28483184028</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45099.29331340278</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45099.299161944444</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45099.30571385416</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45099.307468240746</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="2">
+        <v>45099.31322347222</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="2">
+        <v>45099.31635317129</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="2">
+        <v>45099.316898125</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+      <c r="J95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="2">
+        <v>45099.31712575231</v>
+      </c>
+      <c r="I101">
+        <v>10</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I103">
+        <v>10</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I104">
+        <v>10</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I105">
+        <v>10</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I106">
+        <v>10</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I107">
+        <v>10</v>
+      </c>
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I108">
+        <v>10</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I110">
+        <v>10</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45099.322620266204</v>
+      </c>
+      <c r="I111">
+        <v>10</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I112">
+        <v>10</v>
+      </c>
+      <c r="J112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I113">
+        <v>10</v>
+      </c>
+      <c r="J113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I114">
+        <v>10</v>
+      </c>
+      <c r="J114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I116">
+        <v>10</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I117">
+        <v>10</v>
+      </c>
+      <c r="J117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I118">
+        <v>10</v>
+      </c>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I120">
+        <v>10</v>
+      </c>
+      <c r="J120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45099.3330653125</v>
+      </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
+      <c r="J121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I122">
+        <v>10</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I123">
+        <v>10</v>
+      </c>
+      <c r="J123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I124">
+        <v>10</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I125">
+        <v>10</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I126">
+        <v>10</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I127">
+        <v>10</v>
+      </c>
+      <c r="J127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+      <c r="J128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="2">
+        <v>45099.35014613426</v>
+      </c>
+      <c r="I131">
+        <v>10</v>
+      </c>
+      <c r="J131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I133">
+        <v>10</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I134">
+        <v>10</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I135">
+        <v>10</v>
+      </c>
+      <c r="J135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I136">
+        <v>10</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I137">
+        <v>10</v>
+      </c>
+      <c r="J137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I138">
+        <v>10</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I139">
+        <v>10</v>
+      </c>
+      <c r="J139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I140">
+        <v>10</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="2">
+        <v>45099.350450185186</v>
+      </c>
+      <c r="I141">
+        <v>10</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I142">
+        <v>10</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I143">
+        <v>10</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I144">
+        <v>10</v>
+      </c>
+      <c r="J144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I145">
+        <v>10</v>
+      </c>
+      <c r="J145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I146">
+        <v>10</v>
+      </c>
+      <c r="J146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I147">
+        <v>10</v>
+      </c>
+      <c r="J147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I148">
+        <v>10</v>
+      </c>
+      <c r="J148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I149">
+        <v>10</v>
+      </c>
+      <c r="J149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I150">
+        <v>10</v>
+      </c>
+      <c r="J150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="2">
+        <v>45099.35165939815</v>
+      </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
+      <c r="J151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
+      <c r="J152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I153">
+        <v>10</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I154">
+        <v>10</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I155">
+        <v>10</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I156">
+        <v>10</v>
+      </c>
+      <c r="J156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I157">
+        <v>10</v>
+      </c>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I158">
+        <v>10</v>
+      </c>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I159">
+        <v>10</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I160">
+        <v>10</v>
+      </c>
+      <c r="J160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="2">
+        <v>45099.35470412037</v>
+      </c>
+      <c r="I161">
+        <v>10</v>
+      </c>
+      <c r="J161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+      <c r="J162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I163">
+        <v>10</v>
+      </c>
+      <c r="J163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I164">
+        <v>10</v>
+      </c>
+      <c r="J164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I165">
+        <v>10</v>
+      </c>
+      <c r="J165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I166">
+        <v>10</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I167">
+        <v>10</v>
+      </c>
+      <c r="J167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I168">
+        <v>10</v>
+      </c>
+      <c r="J168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I169">
+        <v>10</v>
+      </c>
+      <c r="J169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I170">
+        <v>10</v>
+      </c>
+      <c r="J170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="2">
+        <v>45099.3551509838</v>
+      </c>
+      <c r="I171">
+        <v>10</v>
+      </c>
+      <c r="J171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I172">
+        <v>10</v>
+      </c>
+      <c r="J172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I173">
+        <v>10</v>
+      </c>
+      <c r="J173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I174">
+        <v>10</v>
+      </c>
+      <c r="J174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I175">
+        <v>10</v>
+      </c>
+      <c r="J175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I176">
+        <v>10</v>
+      </c>
+      <c r="J176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I177">
+        <v>10</v>
+      </c>
+      <c r="J177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I178">
+        <v>10</v>
+      </c>
+      <c r="J178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I179">
+        <v>10</v>
+      </c>
+      <c r="J179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I180">
+        <v>10</v>
+      </c>
+      <c r="J180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="2">
+        <v>45099.356134201385</v>
+      </c>
+      <c r="I181">
+        <v>10</v>
+      </c>
+      <c r="J181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I182">
+        <v>10</v>
+      </c>
+      <c r="J182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I183">
+        <v>10</v>
+      </c>
+      <c r="J183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I184">
+        <v>10</v>
+      </c>
+      <c r="J184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I185">
+        <v>10</v>
+      </c>
+      <c r="J185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I186">
+        <v>10</v>
+      </c>
+      <c r="J186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I187">
+        <v>10</v>
+      </c>
+      <c r="J187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I188">
+        <v>10</v>
+      </c>
+      <c r="J188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I189">
+        <v>10</v>
+      </c>
+      <c r="J189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I190">
+        <v>10</v>
+      </c>
+      <c r="J190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" s="2">
+        <v>45099.35623922454</v>
+      </c>
+      <c r="I191">
+        <v>10</v>
+      </c>
+      <c r="J191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I192">
+        <v>10</v>
+      </c>
+      <c r="J192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I193">
+        <v>10</v>
+      </c>
+      <c r="J193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I194">
+        <v>10</v>
+      </c>
+      <c r="J194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I195">
+        <v>10</v>
+      </c>
+      <c r="J195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I196">
+        <v>10</v>
+      </c>
+      <c r="J196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I197">
+        <v>10</v>
+      </c>
+      <c r="J197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I198">
+        <v>10</v>
+      </c>
+      <c r="J198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I199">
+        <v>10</v>
+      </c>
+      <c r="J199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I200">
+        <v>10</v>
+      </c>
+      <c r="J200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" s="2">
+        <v>45099.364631944445</v>
+      </c>
+      <c r="I201">
+        <v>10</v>
+      </c>
+      <c r="J201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I202">
+        <v>10</v>
+      </c>
+      <c r="J202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I203">
+        <v>10</v>
+      </c>
+      <c r="J203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I204">
+        <v>10</v>
+      </c>
+      <c r="J204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" t="s">
+        <v>15</v>
+      </c>
+      <c r="G205" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I205">
+        <v>10</v>
+      </c>
+      <c r="J205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I206">
+        <v>10</v>
+      </c>
+      <c r="J206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>21</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>15</v>
+      </c>
+      <c r="G207" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I207">
+        <v>10</v>
+      </c>
+      <c r="J207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I208">
+        <v>10</v>
+      </c>
+      <c r="J208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" t="s">
+        <v>15</v>
+      </c>
+      <c r="G209" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I209">
+        <v>10</v>
+      </c>
+      <c r="J209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
+        <v>15</v>
+      </c>
+      <c r="G210" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I210">
+        <v>10</v>
+      </c>
+      <c r="J210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>25</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" s="2">
+        <v>45099.36669969907</v>
+      </c>
+      <c r="I211">
+        <v>10</v>
+      </c>
+      <c r="J211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I212">
+        <v>10</v>
+      </c>
+      <c r="J212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I213">
+        <v>10</v>
+      </c>
+      <c r="J213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" t="s">
+        <v>15</v>
+      </c>
+      <c r="G214" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I214">
+        <v>10</v>
+      </c>
+      <c r="J214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I215">
+        <v>10</v>
+      </c>
+      <c r="J215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I216">
+        <v>10</v>
+      </c>
+      <c r="J216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" t="s">
+        <v>15</v>
+      </c>
+      <c r="G217" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I217">
+        <v>10</v>
+      </c>
+      <c r="J217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" t="s">
+        <v>15</v>
+      </c>
+      <c r="G218" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I218">
+        <v>10</v>
+      </c>
+      <c r="J218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" t="s">
+        <v>15</v>
+      </c>
+      <c r="G219" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I219">
+        <v>10</v>
+      </c>
+      <c r="J219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" t="s">
+        <v>15</v>
+      </c>
+      <c r="G220" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I220">
+        <v>10</v>
+      </c>
+      <c r="J220" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" t="s">
+        <v>15</v>
+      </c>
+      <c r="G221" s="2">
+        <v>45099.36682697917</v>
+      </c>
+      <c r="I221">
+        <v>10</v>
+      </c>
+      <c r="J221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I222">
+        <v>10</v>
+      </c>
+      <c r="J222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>17</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I223">
+        <v>10</v>
+      </c>
+      <c r="J223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" t="s">
+        <v>15</v>
+      </c>
+      <c r="G224" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I224">
+        <v>10</v>
+      </c>
+      <c r="J224" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I225">
+        <v>10</v>
+      </c>
+      <c r="J225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I226">
+        <v>10</v>
+      </c>
+      <c r="J226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I227">
+        <v>10</v>
+      </c>
+      <c r="J227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I228">
+        <v>10</v>
+      </c>
+      <c r="J228" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>23</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" t="s">
+        <v>15</v>
+      </c>
+      <c r="G229" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I229">
+        <v>10</v>
+      </c>
+      <c r="J229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>24</v>
+      </c>
+      <c r="D230" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I230">
+        <v>10</v>
+      </c>
+      <c r="J230" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="2">
+        <v>45099.36834423611</v>
+      </c>
+      <c r="I231">
+        <v>10</v>
+      </c>
+      <c r="J231" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I232">
+        <v>10</v>
+      </c>
+      <c r="J232" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" t="s">
+        <v>15</v>
+      </c>
+      <c r="G233" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I233">
+        <v>10</v>
+      </c>
+      <c r="J233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" t="s">
+        <v>15</v>
+      </c>
+      <c r="G234" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I234">
+        <v>10</v>
+      </c>
+      <c r="J234" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I235">
+        <v>10</v>
+      </c>
+      <c r="J235" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
+        <v>20</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" t="s">
+        <v>15</v>
+      </c>
+      <c r="G236" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I236">
+        <v>10</v>
+      </c>
+      <c r="J236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" t="s">
+        <v>15</v>
+      </c>
+      <c r="G237" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I237">
+        <v>10</v>
+      </c>
+      <c r="J237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>22</v>
+      </c>
+      <c r="D238" t="s">
+        <v>13</v>
+      </c>
+      <c r="E238" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I238">
+        <v>10</v>
+      </c>
+      <c r="J238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>23</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I239">
+        <v>10</v>
+      </c>
+      <c r="J239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" t="s">
+        <v>24</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I240">
+        <v>10</v>
+      </c>
+      <c r="J240" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241" s="2">
+        <v>45099.36835587963</v>
+      </c>
+      <c r="I241">
+        <v>10</v>
+      </c>
+      <c r="J241" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" t="s">
+        <v>15</v>
+      </c>
+      <c r="G242" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I242">
+        <v>10</v>
+      </c>
+      <c r="J242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I243">
+        <v>10</v>
+      </c>
+      <c r="J243" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244" t="s">
+        <v>18</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" t="s">
+        <v>15</v>
+      </c>
+      <c r="G244" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I244">
+        <v>10</v>
+      </c>
+      <c r="J244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" t="s">
+        <v>19</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+      <c r="E245" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" t="s">
+        <v>15</v>
+      </c>
+      <c r="G245" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I245">
+        <v>10</v>
+      </c>
+      <c r="J245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" t="s">
+        <v>20</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" t="s">
+        <v>15</v>
+      </c>
+      <c r="G246" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I246">
+        <v>10</v>
+      </c>
+      <c r="J246" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" t="s">
+        <v>15</v>
+      </c>
+      <c r="G247" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I247">
+        <v>10</v>
+      </c>
+      <c r="J247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" t="s">
+        <v>22</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" t="s">
+        <v>15</v>
+      </c>
+      <c r="G248" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I248">
+        <v>10</v>
+      </c>
+      <c r="J248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I249">
+        <v>10</v>
+      </c>
+      <c r="J249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I250">
+        <v>10</v>
+      </c>
+      <c r="J250" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
+        <v>25</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" t="s">
+        <v>15</v>
+      </c>
+      <c r="G251" s="2">
+        <v>45099.36836811343</v>
+      </c>
+      <c r="I251">
+        <v>10</v>
+      </c>
+      <c r="J251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+      <c r="E252" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" t="s">
+        <v>15</v>
+      </c>
+      <c r="G252" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I252">
+        <v>10</v>
+      </c>
+      <c r="J252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" t="s">
+        <v>15</v>
+      </c>
+      <c r="G253" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I253">
+        <v>10</v>
+      </c>
+      <c r="J253" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" t="s">
+        <v>18</v>
+      </c>
+      <c r="D254" t="s">
+        <v>13</v>
+      </c>
+      <c r="E254" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" t="s">
+        <v>15</v>
+      </c>
+      <c r="G254" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I254">
+        <v>10</v>
+      </c>
+      <c r="J254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" t="s">
+        <v>19</v>
+      </c>
+      <c r="D255" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" t="s">
+        <v>15</v>
+      </c>
+      <c r="G255" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I255">
+        <v>10</v>
+      </c>
+      <c r="J255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I256">
+        <v>10</v>
+      </c>
+      <c r="J256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" t="s">
+        <v>15</v>
+      </c>
+      <c r="G257" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I257">
+        <v>10</v>
+      </c>
+      <c r="J257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I258">
+        <v>10</v>
+      </c>
+      <c r="J258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>23</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I259">
+        <v>10</v>
+      </c>
+      <c r="J259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" t="s">
+        <v>24</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" t="s">
+        <v>15</v>
+      </c>
+      <c r="G260" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I260">
+        <v>10</v>
+      </c>
+      <c r="J260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>25</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" t="s">
+        <v>15</v>
+      </c>
+      <c r="G261" s="2">
+        <v>45099.369196307875</v>
+      </c>
+      <c r="I261">
+        <v>10</v>
+      </c>
+      <c r="J261" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" t="s">
+        <v>15</v>
+      </c>
+      <c r="G262" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I262">
+        <v>10</v>
+      </c>
+      <c r="J262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" t="s">
+        <v>13</v>
+      </c>
+      <c r="E263" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" t="s">
+        <v>15</v>
+      </c>
+      <c r="G263" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I263">
+        <v>10</v>
+      </c>
+      <c r="J263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" t="s">
+        <v>15</v>
+      </c>
+      <c r="G264" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I264">
+        <v>10</v>
+      </c>
+      <c r="J264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" t="s">
+        <v>15</v>
+      </c>
+      <c r="G265" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I265">
+        <v>10</v>
+      </c>
+      <c r="J265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" t="s">
+        <v>15</v>
+      </c>
+      <c r="G266" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I266">
+        <v>10</v>
+      </c>
+      <c r="J266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267" t="s">
+        <v>15</v>
+      </c>
+      <c r="G267" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I267">
+        <v>10</v>
+      </c>
+      <c r="J267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" t="s">
+        <v>11</v>
+      </c>
+      <c r="C268" t="s">
+        <v>22</v>
+      </c>
+      <c r="D268" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" t="s">
+        <v>15</v>
+      </c>
+      <c r="G268" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I268">
+        <v>10</v>
+      </c>
+      <c r="J268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269" t="s">
+        <v>23</v>
+      </c>
+      <c r="D269" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" t="s">
+        <v>14</v>
+      </c>
+      <c r="F269" t="s">
+        <v>15</v>
+      </c>
+      <c r="G269" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I269">
+        <v>10</v>
+      </c>
+      <c r="J269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" t="s">
+        <v>24</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" t="s">
+        <v>15</v>
+      </c>
+      <c r="G270" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I270">
+        <v>10</v>
+      </c>
+      <c r="J270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>25</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" t="s">
+        <v>15</v>
+      </c>
+      <c r="G271" s="2">
+        <v>45099.36923053241</v>
+      </c>
+      <c r="I271">
+        <v>10</v>
+      </c>
+      <c r="J271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" t="s">
+        <v>14</v>
+      </c>
+      <c r="F272" t="s">
+        <v>15</v>
+      </c>
+      <c r="G272" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I272">
+        <v>10</v>
+      </c>
+      <c r="J272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" t="s">
+        <v>17</v>
+      </c>
+      <c r="D273" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" t="s">
+        <v>14</v>
+      </c>
+      <c r="F273" t="s">
+        <v>15</v>
+      </c>
+      <c r="G273" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I273">
+        <v>10</v>
+      </c>
+      <c r="J273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" t="s">
+        <v>18</v>
+      </c>
+      <c r="D274" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274" t="s">
+        <v>15</v>
+      </c>
+      <c r="G274" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I274">
+        <v>10</v>
+      </c>
+      <c r="J274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" t="s">
+        <v>15</v>
+      </c>
+      <c r="G275" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I275">
+        <v>10</v>
+      </c>
+      <c r="J275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276" t="s">
+        <v>13</v>
+      </c>
+      <c r="E276" t="s">
+        <v>14</v>
+      </c>
+      <c r="F276" t="s">
+        <v>15</v>
+      </c>
+      <c r="G276" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I276">
+        <v>10</v>
+      </c>
+      <c r="J276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277" t="s">
+        <v>14</v>
+      </c>
+      <c r="F277" t="s">
+        <v>15</v>
+      </c>
+      <c r="G277" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I277">
+        <v>10</v>
+      </c>
+      <c r="J277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>22</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" t="s">
+        <v>14</v>
+      </c>
+      <c r="F278" t="s">
+        <v>15</v>
+      </c>
+      <c r="G278" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I278">
+        <v>10</v>
+      </c>
+      <c r="J278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>23</v>
+      </c>
+      <c r="D279" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" t="s">
+        <v>15</v>
+      </c>
+      <c r="G279" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I279">
+        <v>10</v>
+      </c>
+      <c r="J279" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>24</v>
+      </c>
+      <c r="D280" t="s">
+        <v>13</v>
+      </c>
+      <c r="E280" t="s">
+        <v>14</v>
+      </c>
+      <c r="F280" t="s">
+        <v>15</v>
+      </c>
+      <c r="G280" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I280">
+        <v>10</v>
+      </c>
+      <c r="J280" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281" t="s">
+        <v>14</v>
+      </c>
+      <c r="F281" t="s">
+        <v>15</v>
+      </c>
+      <c r="G281" s="2">
+        <v>45099.36933233796</v>
+      </c>
+      <c r="I281">
+        <v>10</v>
+      </c>
+      <c r="J281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" t="s">
+        <v>13</v>
+      </c>
+      <c r="E282" t="s">
+        <v>14</v>
+      </c>
+      <c r="F282" t="s">
+        <v>15</v>
+      </c>
+      <c r="G282" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I282">
+        <v>10</v>
+      </c>
+      <c r="J282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" t="s">
+        <v>13</v>
+      </c>
+      <c r="E283" t="s">
+        <v>14</v>
+      </c>
+      <c r="F283" t="s">
+        <v>15</v>
+      </c>
+      <c r="G283" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I283">
+        <v>10</v>
+      </c>
+      <c r="J283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" t="s">
+        <v>18</v>
+      </c>
+      <c r="D284" t="s">
+        <v>13</v>
+      </c>
+      <c r="E284" t="s">
+        <v>14</v>
+      </c>
+      <c r="F284" t="s">
+        <v>15</v>
+      </c>
+      <c r="G284" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I284">
+        <v>10</v>
+      </c>
+      <c r="J284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
+        <v>19</v>
+      </c>
+      <c r="D285" t="s">
+        <v>13</v>
+      </c>
+      <c r="E285" t="s">
+        <v>14</v>
+      </c>
+      <c r="F285" t="s">
+        <v>15</v>
+      </c>
+      <c r="G285" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I285">
+        <v>10</v>
+      </c>
+      <c r="J285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>20</v>
+      </c>
+      <c r="D286" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" t="s">
+        <v>14</v>
+      </c>
+      <c r="F286" t="s">
+        <v>15</v>
+      </c>
+      <c r="G286" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I286">
+        <v>10</v>
+      </c>
+      <c r="J286" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" t="s">
+        <v>13</v>
+      </c>
+      <c r="E287" t="s">
+        <v>14</v>
+      </c>
+      <c r="F287" t="s">
+        <v>15</v>
+      </c>
+      <c r="G287" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I287">
+        <v>10</v>
+      </c>
+      <c r="J287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" t="s">
+        <v>22</v>
+      </c>
+      <c r="D288" t="s">
+        <v>13</v>
+      </c>
+      <c r="E288" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" t="s">
+        <v>15</v>
+      </c>
+      <c r="G288" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I288">
+        <v>10</v>
+      </c>
+      <c r="J288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" t="s">
+        <v>23</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" t="s">
+        <v>14</v>
+      </c>
+      <c r="F289" t="s">
+        <v>15</v>
+      </c>
+      <c r="G289" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I289">
+        <v>10</v>
+      </c>
+      <c r="J289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
+        <v>24</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+      <c r="E290" t="s">
+        <v>14</v>
+      </c>
+      <c r="F290" t="s">
+        <v>15</v>
+      </c>
+      <c r="G290" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I290">
+        <v>10</v>
+      </c>
+      <c r="J290" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
+        <v>25</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>14</v>
+      </c>
+      <c r="F291" t="s">
+        <v>15</v>
+      </c>
+      <c r="G291" s="2">
+        <v>45099.369344872684</v>
+      </c>
+      <c r="I291">
+        <v>10</v>
+      </c>
+      <c r="J291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" t="s">
+        <v>13</v>
+      </c>
+      <c r="E292" t="s">
+        <v>14</v>
+      </c>
+      <c r="F292" t="s">
+        <v>15</v>
+      </c>
+      <c r="G292" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I292">
+        <v>10</v>
+      </c>
+      <c r="J292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" t="s">
+        <v>15</v>
+      </c>
+      <c r="G293" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I293">
+        <v>10</v>
+      </c>
+      <c r="J293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>18</v>
+      </c>
+      <c r="D294" t="s">
+        <v>13</v>
+      </c>
+      <c r="E294" t="s">
+        <v>14</v>
+      </c>
+      <c r="F294" t="s">
+        <v>15</v>
+      </c>
+      <c r="G294" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I294">
+        <v>10</v>
+      </c>
+      <c r="J294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" t="s">
+        <v>14</v>
+      </c>
+      <c r="F295" t="s">
+        <v>15</v>
+      </c>
+      <c r="G295" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I295">
+        <v>10</v>
+      </c>
+      <c r="J295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296" t="s">
+        <v>13</v>
+      </c>
+      <c r="E296" t="s">
+        <v>14</v>
+      </c>
+      <c r="F296" t="s">
+        <v>15</v>
+      </c>
+      <c r="G296" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I296">
+        <v>10</v>
+      </c>
+      <c r="J296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" t="s">
+        <v>14</v>
+      </c>
+      <c r="F297" t="s">
+        <v>15</v>
+      </c>
+      <c r="G297" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I297">
+        <v>10</v>
+      </c>
+      <c r="J297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>22</v>
+      </c>
+      <c r="D298" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" t="s">
+        <v>14</v>
+      </c>
+      <c r="F298" t="s">
+        <v>15</v>
+      </c>
+      <c r="G298" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I298">
+        <v>10</v>
+      </c>
+      <c r="J298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" t="s">
+        <v>23</v>
+      </c>
+      <c r="D299" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" t="s">
+        <v>14</v>
+      </c>
+      <c r="F299" t="s">
+        <v>15</v>
+      </c>
+      <c r="G299" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I299">
+        <v>10</v>
+      </c>
+      <c r="J299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
+        <v>24</v>
+      </c>
+      <c r="D300" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" t="s">
+        <v>14</v>
+      </c>
+      <c r="F300" t="s">
+        <v>15</v>
+      </c>
+      <c r="G300" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I300">
+        <v>10</v>
+      </c>
+      <c r="J300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" t="s">
+        <v>25</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" t="s">
+        <v>14</v>
+      </c>
+      <c r="F301" t="s">
+        <v>15</v>
+      </c>
+      <c r="G301" s="2">
+        <v>45099.37233319445</v>
+      </c>
+      <c r="I301">
+        <v>10</v>
+      </c>
+      <c r="J301" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>14</v>
+      </c>
+      <c r="F302" t="s">
+        <v>15</v>
+      </c>
+      <c r="G302" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I302">
+        <v>10</v>
+      </c>
+      <c r="J302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" t="s">
+        <v>17</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303" t="s">
+        <v>14</v>
+      </c>
+      <c r="F303" t="s">
+        <v>15</v>
+      </c>
+      <c r="G303" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I303">
+        <v>10</v>
+      </c>
+      <c r="J303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
+        <v>18</v>
+      </c>
+      <c r="D304" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304" t="s">
+        <v>14</v>
+      </c>
+      <c r="F304" t="s">
+        <v>15</v>
+      </c>
+      <c r="G304" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I304">
+        <v>10</v>
+      </c>
+      <c r="J304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" t="s">
+        <v>14</v>
+      </c>
+      <c r="F305" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I305">
+        <v>10</v>
+      </c>
+      <c r="J305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306" t="s">
+        <v>13</v>
+      </c>
+      <c r="E306" t="s">
+        <v>14</v>
+      </c>
+      <c r="F306" t="s">
+        <v>15</v>
+      </c>
+      <c r="G306" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I306">
+        <v>10</v>
+      </c>
+      <c r="J306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" t="s">
+        <v>14</v>
+      </c>
+      <c r="F307" t="s">
+        <v>15</v>
+      </c>
+      <c r="G307" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I307">
+        <v>10</v>
+      </c>
+      <c r="J307" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" t="s">
+        <v>14</v>
+      </c>
+      <c r="F308" t="s">
+        <v>15</v>
+      </c>
+      <c r="G308" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I308">
+        <v>10</v>
+      </c>
+      <c r="J308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" t="s">
+        <v>23</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" t="s">
+        <v>14</v>
+      </c>
+      <c r="F309" t="s">
+        <v>15</v>
+      </c>
+      <c r="G309" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I309">
+        <v>10</v>
+      </c>
+      <c r="J309" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310" t="s">
+        <v>24</v>
+      </c>
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" t="s">
+        <v>14</v>
+      </c>
+      <c r="F310" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I310">
+        <v>10</v>
+      </c>
+      <c r="J310" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" t="s">
+        <v>14</v>
+      </c>
+      <c r="F311" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" s="2">
+        <v>45099.37248528935</v>
+      </c>
+      <c r="I311">
+        <v>10</v>
+      </c>
+      <c r="J311" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="33">
   <si>
     <t>Customer</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>rumah sakit 01</t>
+    <t>Rumah Sakit 01</t>
   </si>
   <si>
     <t>Baju</t>
@@ -110,81 +110,6 @@
   </si>
   <si>
     <t>E28068910000400DAF25A937</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF22F934</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF249116</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF25A93D</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF207535</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF22ED34</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF20B535</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF21B12E</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF25A13E</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF237D31</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF233D2F</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF23ED2F</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF25D92A</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF22312C</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF23C531</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF20E92C</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF22FD34</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF23BD31</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF820990</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF22552B</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF22B52C</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF22250C</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF25A12A</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF21D12E</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF21AD2E</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF22F933</t>
   </si>
 </sst>
 </file>
@@ -568,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -631,10 +556,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -660,10 +585,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I3">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -689,10 +614,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I4">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -718,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I5">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -747,10 +672,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I6">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -776,10 +701,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I7">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -805,10 +730,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I8">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -834,10 +759,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -863,10 +788,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I10">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -892,10 +817,10 @@
         <v>15</v>
       </c>
       <c r="G11" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I11">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -921,10 +846,10 @@
         <v>15</v>
       </c>
       <c r="G12" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I12">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -950,10 +875,10 @@
         <v>15</v>
       </c>
       <c r="G13" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I13">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -979,10 +904,10 @@
         <v>15</v>
       </c>
       <c r="G14" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I14">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1008,10 +933,10 @@
         <v>15</v>
       </c>
       <c r="G15" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I15">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -1037,10 +962,10 @@
         <v>15</v>
       </c>
       <c r="G16" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I16">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -1066,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I17">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -1095,737 +1020,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="2">
-        <v>45120.33045113426</v>
+        <v>45134.06977722222</v>
       </c>
       <c r="I18">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I19">
-        <v>42</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I20">
-        <v>42</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I21">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I22">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I23">
-        <v>42</v>
-      </c>
-      <c r="J23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I24">
-        <v>42</v>
-      </c>
-      <c r="J24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I25">
-        <v>42</v>
-      </c>
-      <c r="J25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I26">
-        <v>42</v>
-      </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I27">
-        <v>42</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I28">
-        <v>42</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I29">
-        <v>42</v>
-      </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I30">
-        <v>42</v>
-      </c>
-      <c r="J30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I31">
-        <v>42</v>
-      </c>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I32">
-        <v>42</v>
-      </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I33">
-        <v>42</v>
-      </c>
-      <c r="J33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I34">
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I35">
-        <v>42</v>
-      </c>
-      <c r="J35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I36">
-        <v>42</v>
-      </c>
-      <c r="J36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I37">
-        <v>42</v>
-      </c>
-      <c r="J37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I38">
-        <v>42</v>
-      </c>
-      <c r="J38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I39">
-        <v>42</v>
-      </c>
-      <c r="J39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I40">
-        <v>42</v>
-      </c>
-      <c r="J40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I41">
-        <v>42</v>
-      </c>
-      <c r="J41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I42">
-        <v>42</v>
-      </c>
-      <c r="J42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="2">
-        <v>45120.33045113426</v>
-      </c>
-      <c r="I43">
-        <v>42</v>
-      </c>
-      <c r="J43" t="s">
         <v>16</v>
       </c>
     </row>
